--- a/banhang24/Template/ExportExcel/Teamplate_DanhSachNhaCungCap.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_DanhSachNhaCungCap.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Điện thoại</t>
   </si>
@@ -52,13 +52,19 @@
     <t>Người tạo</t>
   </si>
   <si>
-    <t>Chi phí DV ngoài</t>
-  </si>
-  <si>
     <t>Tỉnh thành</t>
   </si>
   <si>
     <t>Quận huyện</t>
+  </si>
+  <si>
+    <t>Tổng nạp cọc</t>
+  </si>
+  <si>
+    <t>Sử dụng cọc</t>
+  </si>
+  <si>
+    <t>Số dư cọc</t>
   </si>
 </sst>
 </file>
@@ -562,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,13 +585,13 @@
     <col min="6" max="6" width="37.140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="29" style="11" customWidth="1"/>
     <col min="8" max="9" width="17.42578125" style="11" customWidth="1"/>
-    <col min="10" max="11" width="21.5703125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="18" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="13" width="21.5703125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="18" style="19" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -601,9 +607,11 @@
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -623,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>10</v>
@@ -638,13 +646,19 @@
         <v>7</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6"/>
@@ -657,9 +671,11 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
@@ -672,9 +688,11 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
       <c r="C6" s="6"/>
@@ -687,9 +705,11 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6"/>
@@ -702,9 +722,11 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6"/>
@@ -717,9 +739,11 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -732,9 +756,11 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -747,9 +773,11 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -762,9 +790,11 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -777,9 +807,11 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -792,9 +824,11 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
@@ -807,9 +841,11 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
@@ -822,9 +858,11 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="6"/>
@@ -837,9 +875,11 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="9"/>
       <c r="C17" s="6"/>
@@ -852,9 +892,11 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6"/>
@@ -867,9 +909,11 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6"/>
@@ -882,9 +926,11 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
@@ -897,9 +943,11 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6"/>
@@ -912,9 +960,11 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6"/>
@@ -927,9 +977,11 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6"/>
@@ -942,9 +994,11 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="C24" s="6"/>
@@ -957,9 +1011,11 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9"/>
       <c r="C25" s="6"/>
@@ -972,9 +1028,11 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
       <c r="C26" s="6"/>
@@ -987,9 +1045,11 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
@@ -1002,9 +1062,11 @@
       <c r="J27" s="22"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="23"/>
       <c r="C28" s="26"/>
@@ -1026,11 +1088,19 @@
         <f>SUM(L$4:L27)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="15"/>
+      <c r="M28" s="18">
+        <f>SUM(M$4:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <f>SUM(N$4:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>

--- a/banhang24/Template/ExportExcel/Teamplate_DanhSachNhaCungCap.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_DanhSachNhaCungCap.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +102,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,14 +115,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,23 +152,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -224,18 +199,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -246,18 +215,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -568,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,30 +542,30 @@
     <col min="6" max="6" width="37.140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="29" style="11" customWidth="1"/>
     <col min="8" max="9" width="17.42578125" style="11" customWidth="1"/>
-    <col min="10" max="13" width="21.5703125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="18" style="19" customWidth="1"/>
+    <col min="10" max="13" width="21.5703125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="18" style="17" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="5"/>
     </row>
     <row r="3" spans="1:16" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -639,19 +596,19 @@
       <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -668,11 +625,11 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -685,11 +642,11 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -702,11 +659,11 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -719,11 +676,11 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -736,11 +693,11 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -753,11 +710,11 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -770,11 +727,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -787,11 +744,11 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -804,11 +761,11 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -821,11 +778,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -838,11 +795,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -855,11 +812,11 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -872,11 +829,11 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -889,11 +846,11 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -906,11 +863,11 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -923,11 +880,11 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -940,11 +897,11 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -957,11 +914,11 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -974,11 +931,11 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -991,11 +948,11 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1008,11 +965,11 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1025,11 +982,11 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1042,11 +999,11 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1054,49 +1011,17 @@
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="18">
-        <f>SUM(J$4:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="18">
-        <f>SUM(K$4:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <f>SUM(L$4:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <f>SUM(M$4:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="18">
-        <f>SUM(N$4:N27)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
